--- a/elastic_search/search_metrics.xlsx
+++ b/elastic_search/search_metrics.xlsx
@@ -458,16 +458,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B2" t="n">
         <v>0.78</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.76</v>
-      </c>
       <c r="C2" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8240729717813051</v>
+        <v>0.8520888447971782</v>
       </c>
     </row>
   </sheetData>
@@ -695,23 +695,23 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>8/8</t>
+          <t>10/10</t>
         </is>
       </c>
     </row>
